--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\Documentos\UiPath\FreFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61795246-60A3-4CBD-965E-CFC4DD427FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67791BB4-BE12-413A-B6CD-9412D0FF1FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -157,9 +157,6 @@
     <t>BotMail</t>
   </si>
   <si>
-    <t>luis.ramos@beeckerco.com</t>
-  </si>
-  <si>
     <t>MailServer</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>DataPath</t>
   </si>
   <si>
-    <t>D:\RPA\RPA00NN\Data</t>
-  </si>
-  <si>
     <t>Data in/out root path</t>
   </si>
   <si>
@@ -223,9 +217,6 @@
     <t>NYB.000</t>
   </si>
   <si>
-    <t>bots@beeckerco.com</t>
-  </si>
-  <si>
     <t>dd-MM-yyyy</t>
   </si>
   <si>
@@ -244,26 +235,23 @@
     <t>TransactionData excel file path</t>
   </si>
   <si>
-    <t>Documents Path</t>
-  </si>
-  <si>
-    <t>Program's Path</t>
-  </si>
-  <si>
-    <t>API's</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>URL</t>
+    <t>luis.ramos@roboyo.com</t>
+  </si>
+  <si>
+    <t>C:\RPA\BotMonitor\Data</t>
+  </si>
+  <si>
+    <t>AutomationCloudURL</t>
+  </si>
+  <si>
+    <t>https://account.uipath.com/oauth/token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,62 +270,19 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -352,44 +297,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,18 +630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -753,70 +679,43 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1763,34 +1662,7 @@
     <row r="976" ht="14.25" customHeight="1"/>
     <row r="977" ht="14.25" customHeight="1"/>
     <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A20:C20"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1802,22 +1674,22 @@
   <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" style="7" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51" style="5" customWidth="1"/>
+    <col min="3" max="3" width="100.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1847,157 +1719,157 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:26" ht="28.8">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:26" ht="14.4">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>64</v>
+      <c r="C6" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>63</v>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3">
+        <v>587</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="5">
-        <v>587</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2005,10 +1877,10 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2016,7 +1888,7 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
@@ -2027,7 +1899,7 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
@@ -2038,7 +1910,7 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
@@ -2049,7 +1921,7 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
@@ -2060,7 +1932,7 @@
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
@@ -2071,7 +1943,7 @@
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
@@ -2082,7 +1954,7 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C23" t="s">
@@ -2093,7 +1965,7 @@
       <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" t="s">
@@ -2104,7 +1976,7 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
       <c r="C25" t="s">
@@ -2115,10 +1987,10 @@
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7" t="b">
+      <c r="B26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3102,15 +2974,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -4162,15 +4034,15 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67791BB4-BE12-413A-B6CD-9412D0FF1FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF715FD-A865-400A-836F-481D37E04B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>https://account.uipath.com/oauth/token</t>
+  </si>
+  <si>
+    <t>Data\Extras\Templates\Template_Report.xlsx</t>
+  </si>
+  <si>
+    <t>TemplateReportPath</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -315,7 +321,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +638,7 @@
   <dimension ref="A1:Z978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -682,11 +687,18 @@
       <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1674,7 +1686,7 @@
   <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF715FD-A865-400A-836F-481D37E04B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344BF00-2426-4290-883B-A23BC0FF6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
-    <sheet name="Plain_Assets" sheetId="3" r:id="rId3"/>
+    <sheet name="Assets" sheetId="3" r:id="rId3"/>
     <sheet name="Credential_Assets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -142,10 +142,31 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
+    <t>Documents Path</t>
+  </si>
+  <si>
+    <t>Program's Path</t>
+  </si>
+  <si>
+    <t>API's</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>BeeFramework</t>
+  </si>
+  <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>BotName</t>
+    <t>BotId</t>
+  </si>
+  <si>
+    <t>NYB.000</t>
   </si>
   <si>
     <t>Bot Id Code</t>
@@ -154,13 +175,19 @@
     <t>SendDefaultMails</t>
   </si>
   <si>
+    <t>When value is true, sends an email at init, MaxRetryNumber reached, unknow exceptions and End process</t>
+  </si>
+  <si>
     <t>BotMail</t>
   </si>
   <si>
+    <t>Mail attached to outlook in case of SendMails=True and MailServer=Outlook</t>
+  </si>
+  <si>
     <t>MailServer</t>
   </si>
   <si>
-    <t>OUTLOOK</t>
+    <t>SMTP</t>
   </si>
   <si>
     <t>Server for the output default mails</t>
@@ -181,12 +208,30 @@
     <t>SMTP port (Only when MailServer=SMTP)</t>
   </si>
   <si>
-    <t>NotificationMail</t>
+    <t>UserNotificationMail</t>
   </si>
   <si>
     <t>Mail who's going to recive when SendMails=True, usually for IT, AMS or development team</t>
   </si>
   <si>
+    <t>BodyMail_Error</t>
+  </si>
+  <si>
+    <t>Data\Inputs\MailsTemplates\Bot_Error.html</t>
+  </si>
+  <si>
+    <t>BodyMail_NoData</t>
+  </si>
+  <si>
+    <t>Data\Inputs\MailsTemplates\Bot_NoData.html</t>
+  </si>
+  <si>
+    <t>BodyMail_Start</t>
+  </si>
+  <si>
+    <t>Data\Inputs\MailsTemplates\Bot_Start.html</t>
+  </si>
+  <si>
     <t>LogFormat</t>
   </si>
   <si>
@@ -208,16 +253,76 @@
     <t>Orchestrator URL</t>
   </si>
   <si>
-    <t>Mail attached to outlook in case of SendMails=True and MailServer=Outlook</t>
-  </si>
-  <si>
-    <t>When value is true, sends an email at init, MaxRetryNumber reached, unknow exceptions and End process</t>
-  </si>
-  <si>
-    <t>NYB.000</t>
-  </si>
-  <si>
-    <t>dd-MM-yyyy</t>
+    <t>Error Body default template in HTML</t>
+  </si>
+  <si>
+    <t>No Data Body default template in HTML</t>
+  </si>
+  <si>
+    <t>Start Execution body default template in HTML</t>
+  </si>
+  <si>
+    <t>MM-yyyy</t>
+  </si>
+  <si>
+    <t>ReFramework</t>
+  </si>
+  <si>
+    <t>Other Constants</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>UsePlatform</t>
+  </si>
+  <si>
+    <t>If true, the bot will perform all the Platform activities</t>
+  </si>
+  <si>
+    <t>RaiseTicketPerFailedTransaction</t>
+  </si>
+  <si>
+    <t>PlatformURL</t>
+  </si>
+  <si>
+    <t>Platform URL where all the data will be uploaded</t>
+  </si>
+  <si>
+    <t>PlatformProcessID</t>
+  </si>
+  <si>
+    <t>PlatformProcessID given by the Platform Admin</t>
+  </si>
+  <si>
+    <t>AMSAgentId</t>
+  </si>
+  <si>
+    <t>ID for the asigned AMS agent</t>
+  </si>
+  <si>
+    <t>FreshdeskToken</t>
+  </si>
+  <si>
+    <t>Asset that stores the Beecker's Freshdesk Token</t>
+  </si>
+  <si>
+    <t>PlatformAPICredentials</t>
+  </si>
+  <si>
+    <t>Asset that stores the Beecker's API Dashboard Credentials</t>
+  </si>
+  <si>
+    <t>UploadDataPerTransaction</t>
+  </si>
+  <si>
+    <t>If true, the bot will raise a ticket per failed transaction</t>
+  </si>
+  <si>
+    <t>If true, the bot will upload the data pereach transaction</t>
+  </si>
+  <si>
+    <t>TransactionData excel file path</t>
   </si>
   <si>
     <t>TransactionDataSheet</t>
@@ -232,13 +337,43 @@
     <t>Data\TransactionData.xlsx</t>
   </si>
   <si>
-    <t>TransactionData excel file path</t>
-  </si>
-  <si>
-    <t>luis.ramos@roboyo.com</t>
-  </si>
-  <si>
-    <t>C:\RPA\BotMonitor\Data</t>
+    <t>TDStatusColumn</t>
+  </si>
+  <si>
+    <t>The column letter where the Status is setted</t>
+  </si>
+  <si>
+    <t>TDDetailsStatusColumn</t>
+  </si>
+  <si>
+    <t>TDTicketIDColumn</t>
+  </si>
+  <si>
+    <t>The column letter where the Details is setted</t>
+  </si>
+  <si>
+    <t>The column letter where the TicketId is setted</t>
+  </si>
+  <si>
+    <t>RaiseFinalTicket</t>
+  </si>
+  <si>
+    <t>If true, the bot will raise a ticket at the EndProcess</t>
+  </si>
+  <si>
+    <t>bots@beecker.ai</t>
+  </si>
+  <si>
+    <t>Plat_TecM_Dev</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>TemplateReportPath</t>
   </si>
   <si>
     <t>AutomationCloudURL</t>
@@ -247,17 +382,26 @@
     <t>https://account.uipath.com/oauth/token</t>
   </si>
   <si>
-    <t>Data\Extras\Templates\Template_Report.xlsx</t>
-  </si>
-  <si>
-    <t>TemplateReportPath</t>
+    <t>C:\RPA\RPA00NN\Data</t>
+  </si>
+  <si>
+    <t>luis.ramos@roboyo.mx</t>
+  </si>
+  <si>
+    <t>Data\Inputs\FilesTemplates\Template_Report.xlsx</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -276,22 +420,101 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -299,27 +522,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z978"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -684,1327 +955,80 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z981"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" style="5" customWidth="1"/>
-    <col min="3" max="3" width="100.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="28.8">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.4">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3">
-        <v>587</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="5">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
+      <c r="A20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2961,40 +1985,46 @@
     <row r="979" ht="14.25" customHeight="1"/>
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A20:C20"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{5FF08A6A-5834-41DE-8DEA-9CECCE2BAF9C}">
-      <formula1>"Framework"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{B08E27A0-F25E-4DAD-AA0B-B5FD7BDB3296}">
-      <formula1>"MM-yyyy,dd-MM-yyyy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{21C03544-65FB-4EF0-9896-0607DF64EF71}">
-      <formula1>"SMTP,OUTLOOK"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{B1310265-7203-4E8F-81DE-4BBF8FCC29F1}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="151.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3002,14 +2032,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3033,10 +2061,1682 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4">
+        <v>587</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="14.4">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.4">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="5">
+        <v>91</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="5">
+        <v>73000820867</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A43:C43"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{AF0B567B-318D-49F7-BF47-37075073F103}">
+      <formula1>"dd-MM-yyyy,MM-yyyy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B33:B36" xr:uid="{248F42FF-649C-43CB-A4E9-5F8C8224B40B}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{4F91D44E-DA38-4C59-B42F-D8C0EF8BBE54}">
+      <formula1>"https://dev.api.dashboard.beecker.ai/,https://api.dashboard.beecker.ai/"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4033,23 +4733,26 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9510EC4-A796-40C2-A35D-AB5EAC92DF4C}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D414877D-0A7D-4040-A170-961E96460DE7}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4068,7 +4771,51 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6344BF00-2426-4290-883B-A23BC0FF6F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE505BE-443C-401B-827E-C2CCA449058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -271,57 +271,6 @@
     <t>Other Constants</t>
   </si>
   <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>UsePlatform</t>
-  </si>
-  <si>
-    <t>If true, the bot will perform all the Platform activities</t>
-  </si>
-  <si>
-    <t>RaiseTicketPerFailedTransaction</t>
-  </si>
-  <si>
-    <t>PlatformURL</t>
-  </si>
-  <si>
-    <t>Platform URL where all the data will be uploaded</t>
-  </si>
-  <si>
-    <t>PlatformProcessID</t>
-  </si>
-  <si>
-    <t>PlatformProcessID given by the Platform Admin</t>
-  </si>
-  <si>
-    <t>AMSAgentId</t>
-  </si>
-  <si>
-    <t>ID for the asigned AMS agent</t>
-  </si>
-  <si>
-    <t>FreshdeskToken</t>
-  </si>
-  <si>
-    <t>Asset that stores the Beecker's Freshdesk Token</t>
-  </si>
-  <si>
-    <t>PlatformAPICredentials</t>
-  </si>
-  <si>
-    <t>Asset that stores the Beecker's API Dashboard Credentials</t>
-  </si>
-  <si>
-    <t>UploadDataPerTransaction</t>
-  </si>
-  <si>
-    <t>If true, the bot will raise a ticket per failed transaction</t>
-  </si>
-  <si>
-    <t>If true, the bot will upload the data pereach transaction</t>
-  </si>
-  <si>
     <t>TransactionData excel file path</t>
   </si>
   <si>
@@ -355,24 +304,12 @@
     <t>The column letter where the TicketId is setted</t>
   </si>
   <si>
-    <t>RaiseFinalTicket</t>
-  </si>
-  <si>
-    <t>If true, the bot will raise a ticket at the EndProcess</t>
-  </si>
-  <si>
     <t>bots@beecker.ai</t>
   </si>
   <si>
-    <t>Plat_TecM_Dev</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>TemplateReportPath</t>
   </si>
   <si>
@@ -394,7 +331,13 @@
     <t>G</t>
   </si>
   <si>
-    <t>F</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Reporting</t>
   </si>
 </sst>
 </file>
@@ -535,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -549,15 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,9 +521,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -955,68 +886,68 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1024,11 +955,11 @@
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2013,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2062,11 +1993,11 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2161,13 +2092,13 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2195,13 +2126,13 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2243,7 +2174,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>52</v>
@@ -2287,7 +2218,7 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>62</v>
@@ -2342,7 +2273,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>72</v>
@@ -2383,11 +2314,11 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2545,126 +2476,59 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="4" t="b">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="4" t="b">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="4" t="b">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="5">
-        <v>91</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5">
-        <v>73000820867</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A43" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-    </row>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3621,30 +3485,20 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
-    <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
-    <row r="1004" ht="14.25" customHeight="1"/>
-    <row r="1005" ht="14.25" customHeight="1"/>
-    <row r="1006" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{AF0B567B-318D-49F7-BF47-37075073F103}">
       <formula1>"dd-MM-yyyy,MM-yyyy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31 B33:B36" xr:uid="{248F42FF-649C-43CB-A4E9-5F8C8224B40B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{248F42FF-649C-43CB-A4E9-5F8C8224B40B}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{4F91D44E-DA38-4C59-B42F-D8C0EF8BBE54}">
-      <formula1>"https://dev.api.dashboard.beecker.ai/,https://api.dashboard.beecker.ai/"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3653,10 +3507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3703,40 +3557,10 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4728,15 +4552,7 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4744,10 +4560,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D414877D-0A7D-4040-A170-961E96460DE7}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4771,51 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>